--- a/AfDD_2024_Annex_Table_Tab32.xlsx
+++ b/AfDD_2024_Annex_Table_Tab32.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9159556-DCBD-403A-80F8-16AC8A271F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F28EE30-3AB4-490C-94B4-1F72C7EEBFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{03EFF0FF-168B-422F-A250-FD032E61F8A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C8C82EC5-0331-400C-9B8C-79DCF26ECE6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab32" sheetId="1" r:id="rId1"/>
@@ -1503,7 +1503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FE7C33-5C87-4195-8033-FDEF8C3E583B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572C5303-6A13-4D3D-BD44-D21C1A2CE977}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -16228,12 +16228,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{CFEB7DE9-18DD-4291-A6F7-68BB1317638A}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{16339527-11E4-4D34-94C2-3EDFC5151DE2}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{6C93E249-D4C8-4155-91DB-72AC9B26064D}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{F37700F2-0516-442B-8C44-1AA8986B9035}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{2E689A1A-C879-4778-B195-8ADF414CDDED}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{0792D3A8-0FF6-48D3-8614-3079C70779B5}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{03401A03-D017-474F-A01D-3019FE3E2C09}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{11ED8F0B-FB97-48A3-AC5F-36BB545C4502}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{55AB1722-CF52-40AF-B629-5EEEFF3B0BCC}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{D2686487-B249-4832-A4D6-7067425347A4}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{DC32D352-0824-4B3C-AF20-F77B94D16147}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{828ED401-50D5-441A-9449-13648BF1A122}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab32.xlsx
+++ b/AfDD_2024_Annex_Table_Tab32.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F28EE30-3AB4-490C-94B4-1F72C7EEBFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03D16D20-80B8-4A2F-BD79-596C19041B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C8C82EC5-0331-400C-9B8C-79DCF26ECE6B}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{DFB80881-84EA-46A6-9862-688F4D68FA65}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab32" sheetId="1" r:id="rId1"/>
@@ -1186,8 +1186,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1503,7 +1503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572C5303-6A13-4D3D-BD44-D21C1A2CE977}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FDEB7B-AEAF-4608-944A-D236E50601AB}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1515,7 +1515,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="47" width="12.42578125" style="76" bestFit="1" customWidth="1"/>
+    <col min="3" max="47" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16031,7 +16031,7 @@
       <c r="AU110" s="74"/>
     </row>
     <row r="111" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B111" s="77" t="s">
+      <c r="B111" s="76" t="s">
         <v>209</v>
       </c>
       <c r="C111" s="74"/>
@@ -16081,7 +16081,7 @@
       <c r="AU111" s="74"/>
     </row>
     <row r="112" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="76" t="s">
         <v>206</v>
       </c>
       <c r="C112" s="74"/>
@@ -16228,12 +16228,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{03401A03-D017-474F-A01D-3019FE3E2C09}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{11ED8F0B-FB97-48A3-AC5F-36BB545C4502}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{55AB1722-CF52-40AF-B629-5EEEFF3B0BCC}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{D2686487-B249-4832-A4D6-7067425347A4}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{DC32D352-0824-4B3C-AF20-F77B94D16147}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{828ED401-50D5-441A-9449-13648BF1A122}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{690CACFB-46BD-4594-9E0E-214C97BDE700}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{DEE3C9D7-4F1E-4096-B917-FCBE7D5D2FC2}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{BD5C639C-A829-4E70-BE1C-6475443114F4}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{3BD30217-CC29-4B5E-BDD6-8B2A1CCB2F6A}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{80997E92-7829-431F-816B-925D179D742B}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{2183BDD6-5945-496E-907D-6ED3A73A8584}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab32.xlsx
+++ b/AfDD_2024_Annex_Table_Tab32.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03D16D20-80B8-4A2F-BD79-596C19041B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE7D88B5-3D84-4ACC-B6B5-3FC532D30BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{DFB80881-84EA-46A6-9862-688F4D68FA65}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{02B90EDC-F3C8-4538-8095-5E0876346B15}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab32" sheetId="1" r:id="rId1"/>
@@ -1503,7 +1503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FDEB7B-AEAF-4608-944A-D236E50601AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B0809F-EEAD-4EA6-95CF-80C4CA831E42}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -16228,12 +16228,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{690CACFB-46BD-4594-9E0E-214C97BDE700}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{DEE3C9D7-4F1E-4096-B917-FCBE7D5D2FC2}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{BD5C639C-A829-4E70-BE1C-6475443114F4}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{3BD30217-CC29-4B5E-BDD6-8B2A1CCB2F6A}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{80997E92-7829-431F-816B-925D179D742B}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{2183BDD6-5945-496E-907D-6ED3A73A8584}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{E1770889-76B2-42A9-A9B8-856E858B7BC8}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{CE051C44-38F1-4CCD-BB96-CE6D319D061C}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{4627CBC5-8948-4C10-BFCE-1573CFB10CCB}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{FCCE11E4-CD21-4A67-86D0-649C04FC3059}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{927C863E-51D9-4EDD-B83C-ACAE455ACB6D}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{F96BC934-5D3D-4489-B81C-00777A786809}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
